--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150440.630855304</v>
+        <v>1147921.962440825</v>
       </c>
     </row>
     <row r="7">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>269.4395883094606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>163.582095130154</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>310.1743859918038</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>186.1518470411438</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>185.8117135907291</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8243918233021</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>58.92805047992061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>54.26003672910126</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>361.7139100594393</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,16 +1427,16 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>6.270645807385502</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>93.72217699674867</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.0647530648211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001815</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>24.98531566395846</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,13 +1822,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>22.37982691331158</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>77.39507264402575</v>
       </c>
       <c r="E19" t="n">
-        <v>36.4306205949047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695415</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476187933</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520986</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060426</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695614</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756239</v>
+        <v>93.62264337260697</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>107.4021082756233</v>
+        <v>127.9967681169591</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986245</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.9367233701438</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>132.631533721669</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819352</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053491</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.8567702508357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790584</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161911274</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624818</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.17188115873</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>1043.17188115873</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057918</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4477,16 +4477,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4516,13 +4516,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
         <v>1463.519709552058</v>
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.2706867570294</v>
+        <v>1485.986492286524</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570294</v>
+        <v>1485.986492286524</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>1127.720793679774</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>741.9325410815295</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>734.987040332326</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872918</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2374.307159671727</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2043.244272328157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1690.475617058043</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.009858796963</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y5" t="n">
-        <v>926.8705268211511</v>
+        <v>1485.986492286524</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1946.556931114678</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1448.757520487902</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1225.779039682638</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1715.892666966216</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>988.6644514190541</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898456</v>
+        <v>988.6644514190541</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002381</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0353997452345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>121.3202343403665</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2311.998004729286</v>
+        <v>2332.418671408904</v>
       </c>
       <c r="C11" t="n">
-        <v>1943.035487788874</v>
+        <v>1963.456154468492</v>
       </c>
       <c r="D11" t="n">
-        <v>1584.769789182124</v>
+        <v>1605.190455861742</v>
       </c>
       <c r="E11" t="n">
         <v>1219.402203263498</v>
@@ -5036,13 +5036,13 @@
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420322</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301225</v>
@@ -5051,40 +5051,40 @@
         <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882239</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3721.75120075037</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604051</v>
+        <v>3468.260484382978</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.23241826048</v>
+        <v>3461.926498718952</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990365</v>
+        <v>3109.157843448837</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729286</v>
+        <v>3109.157843448837</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.998004729286</v>
+        <v>2719.018511473026</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5115,25 +5115,25 @@
         <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376506</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649603</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.76371390885</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259917</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125666</v>
+        <v>2428.043574125664</v>
       </c>
       <c r="P12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.5722521455272</v>
+        <v>927.2232755143373</v>
       </c>
       <c r="C13" t="n">
-        <v>369.6360692176202</v>
+        <v>758.2870925864303</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6360692176202</v>
+        <v>608.1704531740945</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176202</v>
+        <v>460.2573595917014</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197099</v>
+        <v>313.367412093791</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469186</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1968.108379906987</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1968.108379906987</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1679.017673347275</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1424.333185141388</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544747</v>
+        <v>1424.333185141388</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564574</v>
+        <v>1329.664319488107</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.5722521455272</v>
+        <v>1108.871740344577</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
         <v>4404.704271100993</v>
@@ -5349,16 +5349,16 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
         <v>1061.700680385036</v>
@@ -5367,10 +5367,10 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1653.719034637164</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>2200.595509637358</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.4721904516373</v>
+        <v>976.7330291259773</v>
       </c>
       <c r="C16" t="n">
-        <v>781.5360075237305</v>
+        <v>807.7968461980704</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113948</v>
+        <v>657.6802067857348</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>509.7671132033415</v>
       </c>
       <c r="F16" t="n">
         <v>484.5294206134844</v>
@@ -5431,16 +5431,16 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1379.174073099747</v>
       </c>
       <c r="X16" t="n">
-        <v>1352.913234425407</v>
+        <v>1379.174073099747</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.120655281877</v>
+        <v>1158.381493956217</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048579</v>
+        <v>633.9926444679668</v>
       </c>
       <c r="D19" t="n">
-        <v>444.701316492522</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5662,13 +5662,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876654</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597585</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925215</v>
+        <v>411.9631215597585</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597585</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597585</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038338</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179051</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101288</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122185</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098234</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819165</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695806</v>
+        <v>650.3841300523923</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871876</v>
+        <v>502.4710364699993</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892774</v>
+        <v>355.581088972089</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041574</v>
+        <v>188.3849896869688</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,16 +6388,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536376</v>
+        <v>634.4644740681599</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257307</v>
+        <v>465.528291140253</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133949</v>
+        <v>465.528291140253</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310019</v>
+        <v>317.61519755786</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330918</v>
+        <v>317.61519755786</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2338.476105524075</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868272</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662385</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727407</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583877</v>
+        <v>816.1129388983996</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263191</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>680.4481746984122</v>
+        <v>634.334587849129</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860766</v>
+        <v>484.2179484367933</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036836</v>
+        <v>484.2179484367933</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057733</v>
+        <v>484.2179484367933</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057733</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797737</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396756</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498106</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.825401600089</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.032822456559</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7087,58 +7087,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189235</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533433</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327546</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290586</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925682</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490381</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.6725264685176</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406107</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282751</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583152</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377265</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442287</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987573</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597622</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474263</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>45.7648823102457</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20.21646001282244</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>321.4816126627494</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>131.9874783922885</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.51990028727371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613729271</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4357323589728</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>203.3298284757256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>71.22040037418661</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0033420516645</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038951</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516646</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059999</v>
+        <v>46.67206947361689</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>73.62417772602129</v>
+        <v>53.02951788468551</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0.5874149221250359</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>84.77391660561928</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392193921</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.7278831012591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874580.1004936593</v>
+        <v>874580.1004936589</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>951687.9471848592</v>
+        <v>951687.947184859</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459301</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.47014593</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26320,22 +26320,22 @@
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876635</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217535</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
@@ -26344,16 +26344,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185163</v>
+        <v>143114.1392185155</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051374</v>
+        <v>166521.3471051379</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115338</v>
+        <v>37377.32855115316</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848906</v>
+        <v>43782.40655848914</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224693</v>
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9238.079399450547</v>
@@ -26436,28 +26436,28 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359036</v>
+        <v>-872316.8120359037</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.9715400159</v>
+        <v>242434.9715400155</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.70154212414</v>
+        <v>83013.70154212421</v>
       </c>
       <c r="E6" t="n">
-        <v>185361.3008075495</v>
+        <v>185151.3365637054</v>
       </c>
       <c r="F6" t="n">
-        <v>185546.7253373608</v>
+        <v>185500.8203417946</v>
       </c>
       <c r="G6" t="n">
-        <v>342482.3284055108</v>
+        <v>342447.5904800749</v>
       </c>
       <c r="H6" t="n">
-        <v>353649.56464109</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="I6" t="n">
-        <v>353649.56464109</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="J6" t="n">
-        <v>186044.3868311072</v>
+        <v>186009.6489056714</v>
       </c>
       <c r="K6" t="n">
-        <v>353649.5646410899</v>
+        <v>353614.8267156542</v>
       </c>
       <c r="L6" t="n">
-        <v>305355.5946328993</v>
+        <v>305320.8567074634</v>
       </c>
       <c r="M6" t="n">
-        <v>316272.2360899366</v>
+        <v>316237.4981645012</v>
       </c>
       <c r="N6" t="n">
-        <v>309867.1580826009</v>
+        <v>309832.4201571652</v>
       </c>
       <c r="O6" t="n">
-        <v>350626.2666638653</v>
+        <v>350591.5287384295</v>
       </c>
       <c r="P6" t="n">
-        <v>353649.5646410899</v>
+        <v>353614.8267156543</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086474</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012581</v>
+        <v>122.3935669012574</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>137.4364574322508</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27430,7 +27430,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>43.07608985007974</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27588,7 +27588,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.5515495799971</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>101.3733167811502</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.89340308731818</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>8.850746771008374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0516539184093</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>235.6797139073998</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>90.49497818521952</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>31.98681829672469</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.148294190052504e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-3.808509063674137e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896178</v>
+        <v>266.1421801896196</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>489.7119024980491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,16 +35021,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>295.444411433778</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752875</v>
+        <v>132.1677727752893</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>355.7374950837189</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
